--- a/results/I2_N10_T30_C350_0_P2_res.xlsx
+++ b/results/I2_N10_T30_C350_0_P2_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>918.6369510162187</v>
+        <v>30.19742239378569</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01999998092651367</v>
+        <v>0.01200008392333984</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>29.2269510162266</v>
+        <v>30.16742239378572</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.067300889383517</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.067300889383517</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>720.2999999999921</v>
+        <v>0.02999999999997272</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>169.11</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,105 +580,6 @@
         <is>
           <t>alpha</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>2</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>9</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>9</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>9</v>
-      </c>
-      <c r="B9" t="n">
-        <v>4</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="n">
-        <v>5</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -722,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -733,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -744,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -777,7 +678,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -799,7 +700,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -810,7 +711,7 @@
         <v>6</v>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -843,7 +744,7 @@
         <v>9</v>
       </c>
       <c r="B13" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -923,7 +824,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -945,7 +846,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -956,7 +857,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -1022,7 +923,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -1099,7 +1000,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>10</v>
+        <v>20.34885527085025</v>
       </c>
     </row>
     <row r="6">
@@ -1115,7 +1016,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>10</v>
+        <v>26.71579249669673</v>
       </c>
     </row>
     <row r="8">
@@ -1123,7 +1024,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>10.34885527085025</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
@@ -1163,7 +1064,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>30</v>
+        <v>29.31314932600328</v>
       </c>
     </row>
     <row r="14">
@@ -1171,7 +1072,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>20</v>
+        <v>27.90090852477161</v>
       </c>
     </row>
     <row r="15">
@@ -1179,7 +1080,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>30</v>
+        <v>22.66758337047728</v>
       </c>
     </row>
   </sheetData>
@@ -1193,7 +1094,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1221,132 +1122,6 @@
         <is>
           <t>y</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B2" t="n">
-        <v>11</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>11</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>11</v>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>2</v>
-      </c>
-      <c r="B5" t="n">
-        <v>11</v>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" t="n">
-        <v>11</v>
-      </c>
-      <c r="C6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>9</v>
-      </c>
-      <c r="B7" t="n">
-        <v>13</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>9</v>
-      </c>
-      <c r="B8" t="n">
-        <v>13</v>
-      </c>
-      <c r="C8" t="n">
-        <v>2</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>9</v>
-      </c>
-      <c r="B9" t="n">
-        <v>13</v>
-      </c>
-      <c r="C9" t="n">
-        <v>4</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="n">
-        <v>13</v>
-      </c>
-      <c r="C10" t="n">
-        <v>5</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1448,7 +1223,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>313.6</v>
+        <v>250.9700000000009</v>
       </c>
     </row>
     <row r="8">
@@ -1459,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>331.91</v>
+        <v>260.9900000000009</v>
       </c>
     </row>
     <row r="9">
@@ -1470,7 +1245,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>320.63</v>
+        <v>252.9750000000009</v>
       </c>
     </row>
     <row r="10">
@@ -1481,7 +1256,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>336.425</v>
+        <v>269.5799999999992</v>
       </c>
     </row>
     <row r="11">
@@ -1492,7 +1267,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>315.985</v>
+        <v>250.5750000000009</v>
       </c>
     </row>
     <row r="12">
@@ -1503,7 +1278,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>395.0750000000007</v>
+        <v>332.4450000000016</v>
       </c>
     </row>
     <row r="13">
@@ -1514,7 +1289,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>412.5900000000008</v>
+        <v>341.6700000000017</v>
       </c>
     </row>
     <row r="14">
@@ -1525,7 +1300,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>405.3450000000008</v>
+        <v>337.6900000000016</v>
       </c>
     </row>
     <row r="15">
@@ -1536,7 +1311,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>416.8600000000007</v>
+        <v>350.015</v>
       </c>
     </row>
     <row r="16">
@@ -1547,7 +1322,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>403.3300000000008</v>
+        <v>337.9200000000017</v>
       </c>
     </row>
     <row r="17">
@@ -1558,7 +1333,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>40.35</v>
+        <v>154.3</v>
       </c>
     </row>
     <row r="18">
@@ -1569,7 +1344,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>30.90499999999942</v>
+        <v>148.3449999999993</v>
       </c>
     </row>
     <row r="19">
@@ -1580,7 +1355,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>27.59499999999942</v>
+        <v>128.7049999999993</v>
       </c>
     </row>
     <row r="20">
@@ -1591,7 +1366,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>31.97499999999942</v>
+        <v>146.3249999999993</v>
       </c>
     </row>
     <row r="21">
@@ -1602,7 +1377,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>33.99499999999941</v>
+        <v>134.2149999999993</v>
       </c>
     </row>
     <row r="22">
@@ -1613,7 +1388,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>216.7600000000006</v>
+        <v>72.6299999999995</v>
       </c>
     </row>
     <row r="23">
@@ -1624,7 +1399,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>216.7250000000006</v>
+        <v>80.0549999999995</v>
       </c>
     </row>
     <row r="24">
@@ -1635,7 +1410,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>199.5399999999987</v>
+        <v>82.31999999999948</v>
       </c>
     </row>
     <row r="25">
@@ -1646,7 +1421,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>218.1850000000006</v>
+        <v>83.9549999999995</v>
       </c>
     </row>
     <row r="26">
@@ -1657,7 +1432,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>206.5850000000006</v>
+        <v>80.8149999999995</v>
       </c>
     </row>
     <row r="27">
@@ -1668,7 +1443,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>62.63000000000022</v>
+        <v>295.9199999999996</v>
       </c>
     </row>
     <row r="28">
@@ -1679,7 +1454,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>70.92000000000021</v>
+        <v>323.5</v>
       </c>
     </row>
     <row r="29">
@@ -1690,7 +1465,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>67.65500000000021</v>
+        <v>294.2649999999996</v>
       </c>
     </row>
     <row r="30">
@@ -1701,7 +1476,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>66.84500000000021</v>
+        <v>311.1</v>
       </c>
     </row>
     <row r="31">
@@ -1712,7 +1487,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>65.41000000000022</v>
+        <v>297.3649999999997</v>
       </c>
     </row>
     <row r="32">
@@ -1723,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>144.1300000000011</v>
+        <v>107.3799999999999</v>
       </c>
     </row>
     <row r="33">
@@ -1734,7 +1509,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>136.6700000000011</v>
+        <v>112.2399999999999</v>
       </c>
     </row>
     <row r="34">
@@ -1745,7 +1520,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>117.2199999999993</v>
+        <v>93.78999999999985</v>
       </c>
     </row>
     <row r="35">
@@ -1756,7 +1531,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>134.2300000000011</v>
+        <v>108.8349999999998</v>
       </c>
     </row>
     <row r="36">
@@ -1767,7 +1542,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>125.7699999999993</v>
+        <v>94.77999999999986</v>
       </c>
     </row>
     <row r="37">
@@ -1778,7 +1553,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>203.6549999999992</v>
+        <v>141.0250000000001</v>
       </c>
     </row>
     <row r="38">
@@ -1789,7 +1564,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>214.3200000000004</v>
+        <v>143.4</v>
       </c>
     </row>
     <row r="39">
@@ -1800,7 +1575,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>207.3600000000004</v>
+        <v>139.7050000000001</v>
       </c>
     </row>
     <row r="40">
@@ -1811,7 +1586,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>217.2699999999992</v>
+        <v>150.4250000000002</v>
       </c>
     </row>
     <row r="41">
@@ -1822,7 +1597,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>200.1800000000003</v>
+        <v>134.7700000000002</v>
       </c>
     </row>
     <row r="42">
@@ -1833,7 +1608,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>284.685</v>
+        <v>140.5549999999989</v>
       </c>
     </row>
     <row r="43">
@@ -1844,7 +1619,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>295.885</v>
+        <v>159.214999999999</v>
       </c>
     </row>
     <row r="44">
@@ -1855,7 +1630,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>259.3599999999981</v>
+        <v>142.1399999999989</v>
       </c>
     </row>
     <row r="45">
@@ -1866,7 +1641,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>281.955</v>
+        <v>147.7249999999989</v>
       </c>
     </row>
     <row r="46">
@@ -1877,7 +1652,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>265.515</v>
+        <v>139.7449999999989</v>
       </c>
     </row>
     <row r="47">
@@ -1888,7 +1663,7 @@
         <v>1</v>
       </c>
       <c r="C47" t="n">
-        <v>370.1700000000005</v>
+        <v>226.0399999999994</v>
       </c>
     </row>
     <row r="48">
@@ -1899,7 +1674,7 @@
         <v>2</v>
       </c>
       <c r="C48" t="n">
-        <v>383.85</v>
+        <v>247.1799999999994</v>
       </c>
     </row>
     <row r="49">
@@ -1910,7 +1685,7 @@
         <v>3</v>
       </c>
       <c r="C49" t="n">
-        <v>339.0749999999986</v>
+        <v>221.8549999999994</v>
       </c>
     </row>
     <row r="50">
@@ -1921,7 +1696,7 @@
         <v>4</v>
       </c>
       <c r="C50" t="n">
-        <v>372.6850000000005</v>
+        <v>238.4549999999994</v>
       </c>
     </row>
     <row r="51">
@@ -1932,7 +1707,7 @@
         <v>5</v>
       </c>
       <c r="C51" t="n">
-        <v>350.2450000000005</v>
+        <v>224.4749999999994</v>
       </c>
     </row>
     <row r="52">
@@ -1943,7 +1718,7 @@
         <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>120.5799999999995</v>
+        <v>57.95</v>
       </c>
     </row>
     <row r="53">
@@ -1954,7 +1729,7 @@
         <v>2</v>
       </c>
       <c r="C53" t="n">
-        <v>129.6</v>
+        <v>58.67999999999927</v>
       </c>
     </row>
     <row r="54">
@@ -1965,7 +1740,7 @@
         <v>3</v>
       </c>
       <c r="C54" t="n">
-        <v>129.3849999999995</v>
+        <v>61.72999999999927</v>
       </c>
     </row>
     <row r="55">
@@ -1976,7 +1751,7 @@
         <v>4</v>
       </c>
       <c r="C55" t="n">
-        <v>127.5</v>
+        <v>60.65499999999928</v>
       </c>
     </row>
     <row r="56">
@@ -1987,7 +1762,7 @@
         <v>5</v>
       </c>
       <c r="C56" t="n">
-        <v>118.3249999999995</v>
+        <v>52.91499999999927</v>
       </c>
     </row>
     <row r="57">
@@ -1998,7 +1773,7 @@
         <v>1</v>
       </c>
       <c r="C57" t="n">
-        <v>395.0750000000007</v>
+        <v>332.4450000000016</v>
       </c>
     </row>
     <row r="58">
@@ -2009,7 +1784,7 @@
         <v>2</v>
       </c>
       <c r="C58" t="n">
-        <v>412.5900000000008</v>
+        <v>341.6700000000017</v>
       </c>
     </row>
     <row r="59">
@@ -2020,7 +1795,7 @@
         <v>3</v>
       </c>
       <c r="C59" t="n">
-        <v>405.3450000000008</v>
+        <v>337.6900000000016</v>
       </c>
     </row>
     <row r="60">
@@ -2031,7 +1806,7 @@
         <v>4</v>
       </c>
       <c r="C60" t="n">
-        <v>416.8600000000007</v>
+        <v>350.015</v>
       </c>
     </row>
     <row r="61">
@@ -2042,7 +1817,7 @@
         <v>5</v>
       </c>
       <c r="C61" t="n">
-        <v>403.3300000000008</v>
+        <v>337.9200000000017</v>
       </c>
     </row>
     <row r="62">
@@ -2053,7 +1828,7 @@
         <v>1</v>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>295.9199999999996</v>
       </c>
     </row>
     <row r="63">
@@ -2064,7 +1839,7 @@
         <v>2</v>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
+        <v>323.5</v>
       </c>
     </row>
     <row r="64">
@@ -2075,7 +1850,7 @@
         <v>3</v>
       </c>
       <c r="C64" t="n">
-        <v>0</v>
+        <v>294.2649999999996</v>
       </c>
     </row>
     <row r="65">
@@ -2086,7 +1861,7 @@
         <v>4</v>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>311.1</v>
       </c>
     </row>
     <row r="66">
@@ -2097,7 +1872,7 @@
         <v>5</v>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
+        <v>297.3649999999997</v>
       </c>
     </row>
     <row r="67">
@@ -2108,7 +1883,7 @@
         <v>1</v>
       </c>
       <c r="C67" t="n">
-        <v>370.1700000000005</v>
+        <v>154.3</v>
       </c>
     </row>
     <row r="68">
@@ -2119,7 +1894,7 @@
         <v>2</v>
       </c>
       <c r="C68" t="n">
-        <v>383.85</v>
+        <v>148.3449999999993</v>
       </c>
     </row>
     <row r="69">
@@ -2130,7 +1905,7 @@
         <v>3</v>
       </c>
       <c r="C69" t="n">
-        <v>339.0749999999986</v>
+        <v>128.7049999999993</v>
       </c>
     </row>
     <row r="70">
@@ -2141,7 +1916,7 @@
         <v>4</v>
       </c>
       <c r="C70" t="n">
-        <v>372.6850000000005</v>
+        <v>146.3249999999993</v>
       </c>
     </row>
     <row r="71">
@@ -2152,7 +1927,7 @@
         <v>5</v>
       </c>
       <c r="C71" t="n">
-        <v>350.2450000000005</v>
+        <v>134.2149999999993</v>
       </c>
     </row>
   </sheetData>
@@ -2199,7 +1974,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>45.075</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -2210,7 +1985,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>62.59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -2221,7 +1996,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>55.345</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -2232,7 +2007,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>66.86</v>
+        <v>0.01499999999998636</v>
       </c>
     </row>
     <row r="6">
@@ -2243,7 +2018,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>53.33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -2309,7 +2084,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>20.16999999999871</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -2320,7 +2095,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>33.85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -2342,7 +2117,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>22.68499999999864</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2353,7 +2128,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2449999999986971</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2510,7 +2285,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>6.57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -2521,7 +2296,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>5.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -2532,7 +2307,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>7.32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -2543,7 +2318,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>5.515</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2554,7 +2329,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>5.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2620,7 +2395,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>7.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2631,7 +2406,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>5.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2642,7 +2417,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>4.755</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2653,7 +2428,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>5.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2664,7 +2439,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>7.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2675,7 +2450,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2686,7 +2461,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>6.475</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2697,7 +2472,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>4.165</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2708,7 +2483,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>6.58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2719,7 +2494,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>3.005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -2953,7 +2728,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2983,97 +2758,9 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>2</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>9</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>9</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>9</v>
-      </c>
-      <c r="B9" t="n">
-        <v>4</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" t="n">
-        <v>5</v>
-      </c>
-      <c r="C10" t="n">
         <v>1</v>
       </c>
     </row>
